--- a/medicine/Enfance/Delphine_et_la_Grosse_Colère/Delphine_et_la_Grosse_Colère.xlsx
+++ b/medicine/Enfance/Delphine_et_la_Grosse_Colère/Delphine_et_la_Grosse_Colère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Delphine_et_la_Grosse_Col%C3%A8re</t>
+          <t>Delphine_et_la_Grosse_Colère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delphine et la Grosse Colère est un conte de Littérature d'enfance et de jeunesse écrit par Henriette Bichonnier,  publié en 1986 dans la collection Grignote-mots  aux éditions Nathan  avec les illustrations d'Amato Soro, réédité  en 1992 dans la collection Tourne-Page avec les illustrations de Pronto,  désormais disponible uniquement en version italienne sous le titre Martina e il gran capriccio aux éditions Editrice Piccoli, Turin, 1994.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Delphine_et_la_Grosse_Col%C3%A8re</t>
+          <t>Delphine_et_la_Grosse_Colère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Colère (héroïne)
 Delphine, une petite fille qui n'aime pas les épinards
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Delphine_et_la_Grosse_Col%C3%A8re</t>
+          <t>Delphine_et_la_Grosse_Colère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Delphine refuse de manger des épinards, et elle fait une grosse colère. C'est-à-dire que la Colère se matérialise sous forme de monstre qui grossit au fur et à mesure que le caprice de la petite fille prend de l'ampleur. La Colère enfle, envahit toute la maison, obligeant les parents  et même la petite fille à fuir dans la cour où la Colère les poursuit. Alertés, les voisins, les touristes, s'amassent pour prendre des photos. puis arrive la maîtresse d'école et les camarades de classe de Delphine. Pour que tout rentre dans l'ordre, il faudra se poser des questions...
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Delphine_et_la_Grosse_Col%C3%A8re</t>
+          <t>Delphine_et_la_Grosse_Colère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Exploitation pédagogique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>les épinards
 les légumes (ceux que les enfants détestent, ceux qu'ils aiment)
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Delphine_et_la_Grosse_Col%C3%A8re</t>
+          <t>Delphine_et_la_Grosse_Colère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Littérature d'enfance et de jeunesse
 Liste d'auteurs de littérature de jeunesse
